--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R267c2edc13234ddd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rd826c40f43f44da7"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -290,7 +290,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfafb11ed25224c81"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R83184a6b29e04d04"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -320,7 +320,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd2a38d62409f43be"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3118a6e8cd7c4861"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -418,6 +418,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0353986843eb4af9"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra4c11c62226446a0"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rd826c40f43f44da7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R4721b85b86a54bf8"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -95,6 +95,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -157,6 +158,7 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -190,6 +192,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -252,6 +255,7 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -290,7 +294,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R83184a6b29e04d04"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R43fe86dc04cd42e6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -320,7 +324,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3118a6e8cd7c4861"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5ee3a61d4fa4484b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -418,6 +422,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra4c11c62226446a0"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R33566b536fde4b9f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R4721b85b86a54bf8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R4e7e5e1c17994fb3"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -294,7 +294,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R43fe86dc04cd42e6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5a00aa9331a24181"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -324,7 +324,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5ee3a61d4fa4484b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rde39bcabfbcf41e4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -422,6 +422,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R33566b536fde4b9f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R27949675e9464a50"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R4e7e5e1c17994fb3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Red3f6ca938914cd6"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -294,7 +294,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5a00aa9331a24181"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc6749aec5c3e4e3a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -324,7 +324,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rde39bcabfbcf41e4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0c72b6a55e2a4ebe"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -422,6 +422,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R27949675e9464a50"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcb1b7355ce3642b0"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Red3f6ca938914cd6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R84dc4360460f494c"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -294,7 +294,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc6749aec5c3e4e3a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1742ff443aff432d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -324,7 +324,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0c72b6a55e2a4ebe"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R66c3fd51b32a4079"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -422,6 +422,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcb1b7355ce3642b0"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Raf86509d94df4091"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R84dc4360460f494c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R245e2f2149f74021"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -294,7 +294,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1742ff443aff432d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7ac77ca2a3734934"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -324,7 +324,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R66c3fd51b32a4079"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1b9fabeb519f4abd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -422,6 +422,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Raf86509d94df4091"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R751fa756936946a2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R245e2f2149f74021"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R0b468188d00f4cbc"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -294,7 +294,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7ac77ca2a3734934"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0312b6871ffb4ed3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -324,7 +324,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1b9fabeb519f4abd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5a3b2af688994f29"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -422,6 +422,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R751fa756936946a2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf6af39524ec24410"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R0b468188d00f4cbc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R8c6006e6b6bc4782"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -294,7 +294,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0312b6871ffb4ed3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R42567fdcdd5843e5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -324,7 +324,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5a3b2af688994f29"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R508dfd0509724bc8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -422,6 +422,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf6af39524ec24410"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8d49a225bcc74a6d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R8c6006e6b6bc4782"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R0cb3c7c78e424565"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 
@@ -294,7 +295,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R42567fdcdd5843e5"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2b202adac75d4e8b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -324,7 +325,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R508dfd0509724bc8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R748d3623cfdd431a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -422,6 +423,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8d49a225bcc74a6d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb4578fbd627a4c33"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R0cb3c7c78e424565"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rc30e658ca22f4619"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -295,7 +295,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2b202adac75d4e8b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R30fa7c93716a418c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -325,7 +325,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R748d3623cfdd431a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rde21439d3f6a41cf"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -423,6 +423,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb4578fbd627a4c33"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R436da31ceb2d4caf"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rc30e658ca22f4619"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R2a74e450ae8b4f75"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -295,7 +295,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R30fa7c93716a418c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd67827b3dff44b0c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -325,7 +325,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rde21439d3f6a41cf"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re4fbdbad77c4469a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -423,6 +423,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R436da31ceb2d4caf"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd77c9f9dc75445b1"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R2a74e450ae8b4f75"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rcaa1a2a01ebd43a3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -295,7 +295,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd67827b3dff44b0c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9f9b838850b44179"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -325,7 +325,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re4fbdbad77c4469a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2f19c156a9154164"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -423,6 +423,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd77c9f9dc75445b1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3027df7d1c244504"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rcaa1a2a01ebd43a3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R74116790faa8498b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -295,7 +295,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9f9b838850b44179"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb8555a7f7af24f38"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -325,7 +325,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2f19c156a9154164"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd93f2e6e92004a44"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -423,6 +423,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3027df7d1c244504"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2df6801123d64816"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R74116790faa8498b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R8f9ea2b6a2f84802"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -295,7 +295,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb8555a7f7af24f38"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc67d43c70f7b4d93"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -325,7 +325,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd93f2e6e92004a44"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8e9c1bf00b764ca1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -423,6 +423,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2df6801123d64816"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R07e1887f7196483b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R8f9ea2b6a2f84802"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R78bd3d06428f47d6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -295,7 +295,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc67d43c70f7b4d93"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re35029026dc843a6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -325,7 +325,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8e9c1bf00b764ca1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2a3fa90b10af4387"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -423,6 +423,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R07e1887f7196483b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re94d03af020842f8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R78bd3d06428f47d6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R9f298a0fb18649c3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -295,7 +295,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re35029026dc843a6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb006a049d1f14b55"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -325,7 +325,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2a3fa90b10af4387"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6e703a7f5a5a48c7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -423,6 +423,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re94d03af020842f8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7f01eb9138054d8e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R9f298a0fb18649c3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rca1a653f2e8a4795"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -295,7 +295,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb006a049d1f14b55"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Raac378d3ce2041e4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -325,7 +325,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6e703a7f5a5a48c7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdcc309d925f4437d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -423,6 +423,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7f01eb9138054d8e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R05dc3d0cb80649a3"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rca1a653f2e8a4795"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R7837af6bb5de404d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -295,7 +295,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Raac378d3ce2041e4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf43896a8e5034870"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -325,7 +325,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdcc309d925f4437d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R701cdca08df045da"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -423,6 +423,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R05dc3d0cb80649a3"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra556726c76244242"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R7837af6bb5de404d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R51dc1b09947f482f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -295,7 +295,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf43896a8e5034870"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R49b4fac5dca04918"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -325,7 +325,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R701cdca08df045da"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R867ca8537a6a42f2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -423,6 +423,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra556726c76244242"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2d7743ac53c846ad"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R51dc1b09947f482f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R191cb870dbc442a1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -295,7 +295,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R49b4fac5dca04918"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7e3ba0e6c16a450f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -325,7 +325,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R867ca8537a6a42f2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R95a32636e92242e6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -423,6 +423,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2d7743ac53c846ad"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R56b5ccff39c2483e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R191cb870dbc442a1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R5b5cfb6de9614cf6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -295,7 +295,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7e3ba0e6c16a450f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra83b92c1649f407e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -325,7 +325,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R95a32636e92242e6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4213b68ab3874873"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -423,6 +423,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R56b5ccff39c2483e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Reda039d9d71a437e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R5b5cfb6de9614cf6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R7bc8f6a7624b4e12"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -295,7 +295,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra83b92c1649f407e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdf5006f25372487d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -325,7 +325,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4213b68ab3874873"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5dcc41c326804a80"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -423,6 +423,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Reda039d9d71a437e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4dc08168f2b843ee"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R7bc8f6a7624b4e12"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R0e112427c0764747"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -295,7 +295,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdf5006f25372487d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0db83258bf9045c2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -325,7 +325,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5dcc41c326804a80"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rba804ec246404deb"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -423,6 +423,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4dc08168f2b843ee"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5bbe93cf799644d3"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R0e112427c0764747"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rec38e1129cff4614"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -295,7 +295,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0db83258bf9045c2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7f118437071c46a4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -325,7 +325,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rba804ec246404deb"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R418169ffc3c74e34"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -423,6 +423,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5bbe93cf799644d3"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf942c345bd8c4d5e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rec38e1129cff4614"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R3fb13d8b221d41cc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -295,7 +295,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7f118437071c46a4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re93165df9f6d4e94"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -325,7 +325,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R418169ffc3c74e34"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R366c6062149145da"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -423,6 +423,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf942c345bd8c4d5e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R00bd88c4b2b54b9c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R3fb13d8b221d41cc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R02e52c3e135143bb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -295,7 +295,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re93165df9f6d4e94"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5194d9570661492f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -325,7 +325,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R366c6062149145da"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf645f1512afc4ae3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -423,6 +423,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R00bd88c4b2b54b9c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R12516e85206c4187"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R02e52c3e135143bb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rdc81e8efc3f64150"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -295,7 +295,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5194d9570661492f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2e21932d4dd84e5f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -325,7 +325,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf645f1512afc4ae3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdd2a5f4a89904e4b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -423,6 +423,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R12516e85206c4187"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2671df67788c4827"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rdc81e8efc3f64150"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R8dbb5f4378334095"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -295,7 +295,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2e21932d4dd84e5f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R10cb1ce98cb74bbf"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -325,7 +325,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdd2a5f4a89904e4b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R956fb0b46c6d432c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -423,6 +423,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2671df67788c4827"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbb8d2a2227b8457a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R8dbb5f4378334095"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R0304b044d701494d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -295,7 +295,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R10cb1ce98cb74bbf"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdfa8ee4b6a794cb3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -325,7 +325,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R956fb0b46c6d432c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R38fa7b9645c14ac0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -423,6 +423,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbb8d2a2227b8457a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc53c963a57644e4f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R0304b044d701494d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R711886ea3b264a7c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -107,6 +107,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Sales Data'!$A$2:$A$5</c:f>
@@ -204,6 +207,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Sales Data'!$A$2:$A$5</c:f>
@@ -295,7 +301,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdfa8ee4b6a794cb3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re56d9f22d15c4756"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -325,7 +331,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R38fa7b9645c14ac0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R407713b2c67e464b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -423,6 +429,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc53c963a57644e4f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra9be3bac6ca342cd"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R711886ea3b264a7c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R5d83b2a3213d4592"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -301,7 +301,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re56d9f22d15c4756"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R88b1838e00c445f2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -331,7 +331,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R407713b2c67e464b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Red370a169f984b65"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -429,6 +429,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra9be3bac6ca342cd"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R307269f0724f407e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R5d83b2a3213d4592"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R59c87445fd0848ba"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -301,7 +301,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R88b1838e00c445f2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5e54b152bb5b4e04"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -331,7 +331,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Red370a169f984b65"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc5fc4521ca16412c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -429,6 +429,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R307269f0724f407e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2a6251ce6a0a4715"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R59c87445fd0848ba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R6cac405633544c9f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -301,7 +301,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5e54b152bb5b4e04"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R970d7e9e84094a59"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -331,7 +331,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc5fc4521ca16412c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R951641849faf459f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -429,6 +429,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2a6251ce6a0a4715"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R62da7a6c400049df"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R6cac405633544c9f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R8b1b43afee434e62"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -301,7 +301,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R970d7e9e84094a59"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra814406d3bad4cbb"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -331,7 +331,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R951641849faf459f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R73e6bf08020b4881"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -429,6 +429,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R62da7a6c400049df"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb9a1ab279ad54004"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R8b1b43afee434e62"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rbc3b6f8dee0b4310"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -301,7 +301,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra814406d3bad4cbb"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5c48b7c991ad41ff"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -331,7 +331,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R73e6bf08020b4881"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3b9559df487540cf"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -429,6 +429,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb9a1ab279ad54004"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1ccc71c4f6bf468b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/41_BarChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rbc3b6f8dee0b4310"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R989e2f4188d34ccc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -301,7 +301,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5c48b7c991ad41ff"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R33cfa802d2d44403"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -331,7 +331,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3b9559df487540cf"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R496cc2c74f0b4477"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -429,6 +429,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1ccc71c4f6bf468b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R52514b10697342c0"/>
 </x:worksheet>
 </file>